--- a/diploma/exel_result/race_recognition.xlsx
+++ b/diploma/exel_result/race_recognition.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7620" tabRatio="814" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7620" tabRatio="814"/>
   </bookViews>
   <sheets>
     <sheet name="Сравнение с FaceSDK (без угла)" sheetId="5" r:id="rId1"/>
@@ -815,6 +815,26 @@
     </comment>
   </commentList>
 </comments>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>примерно равные значения как при сравнении с учетом угла, так и без него (не учитывая очень низкие значения)</t>
+  </si>
+  <si>
+    <t>сильно различающиеся значения у экспериментов с учетом угла и без</t>
+  </si>
+  <si>
+    <t>красным помечены наиболее вероятные совпадения (больше 0,4)</t>
+  </si>
+  <si>
+    <t>картинкой правой кнопкой и там нажмите "Показать или скрыть примечание"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PS если вы хотите сравнить взглядом две картинки, то чтобы одна из них не исчезала, когда вы убираете с нее мышку, щелкните по ячейке с этой </t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -877,7 +897,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -886,7 +906,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -903,13 +929,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1190,10 +1220,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:V28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:U12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1273,7 +1303,7 @@
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="8">
         <v>0</v>
       </c>
       <c r="E2">
@@ -1282,13 +1312,13 @@
       <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="8">
         <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="8">
         <v>0.1</v>
       </c>
       <c r="J2">
@@ -1403,19 +1433,19 @@
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="6">
         <v>0.67</v>
       </c>
       <c r="F4">
         <v>0.1</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="5">
         <v>0.37</v>
       </c>
       <c r="H4">
         <v>0.11</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="5">
         <v>0.23</v>
       </c>
       <c r="J4">
@@ -1436,7 +1466,7 @@
       <c r="O4">
         <v>0.04</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="5">
         <v>0.15</v>
       </c>
       <c r="Q4">
@@ -1468,16 +1498,16 @@
       <c r="F5">
         <v>0</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="5">
         <v>0.25</v>
       </c>
       <c r="H5">
         <v>0.2</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="4">
         <v>0.75</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="4">
         <v>0.48</v>
       </c>
       <c r="K5">
@@ -1583,10 +1613,10 @@
       <c r="H7">
         <v>0.4</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="5">
         <v>0.22</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="4">
         <v>0.53</v>
       </c>
       <c r="K7">
@@ -1683,7 +1713,7 @@
       <c r="I9">
         <v>1</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="6">
         <v>0.54</v>
       </c>
       <c r="K9">
@@ -1894,7 +1924,7 @@
       <c r="P14">
         <v>0.01</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" s="5">
         <v>0.12</v>
       </c>
       <c r="R14">
@@ -1981,7 +2011,7 @@
       <c r="S17">
         <v>0.02</v>
       </c>
-      <c r="T17" s="4">
+      <c r="T17" s="9">
         <v>0.35</v>
       </c>
       <c r="U17">
@@ -2051,6 +2081,39 @@
       </c>
       <c r="V21" s="1">
         <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>123</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2062,10 +2125,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2145,7 +2208,7 @@
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="8">
         <v>0.21</v>
       </c>
       <c r="E2">
@@ -2154,13 +2217,13 @@
       <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="8">
         <v>0.17</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="6">
         <v>0.77</v>
       </c>
       <c r="J2">
@@ -2275,19 +2338,19 @@
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="7">
         <v>0.2</v>
       </c>
       <c r="F4">
         <v>0.03</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="5">
         <v>0.35</v>
       </c>
       <c r="H4">
         <v>0.16</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="5">
         <v>0.16</v>
       </c>
       <c r="J4">
@@ -2308,7 +2371,7 @@
       <c r="O4">
         <v>0.02</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="5">
         <v>0.12</v>
       </c>
       <c r="Q4">
@@ -2340,16 +2403,16 @@
       <c r="F5">
         <v>0.01</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="5">
         <v>0.27</v>
       </c>
       <c r="H5">
         <v>0.02</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="4">
         <v>0.72</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="4">
         <v>0.65</v>
       </c>
       <c r="K5">
@@ -2455,10 +2518,10 @@
       <c r="H7" s="2">
         <v>0.56000000000000005</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="5">
         <v>0.22</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="4">
         <v>0.49</v>
       </c>
       <c r="K7">
@@ -2555,7 +2618,7 @@
       <c r="I9">
         <v>1</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="7">
         <v>0.3</v>
       </c>
       <c r="K9">
@@ -2766,7 +2829,7 @@
       <c r="P14">
         <v>0</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" s="5">
         <v>0.14000000000000001</v>
       </c>
       <c r="R14">
@@ -2853,7 +2916,7 @@
       <c r="S17">
         <v>0.5</v>
       </c>
-      <c r="T17">
+      <c r="T17" s="8">
         <v>0.18</v>
       </c>
       <c r="U17">
@@ -2924,6 +2987,10 @@
       <c r="V21" s="1">
         <v>20</v>
       </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2936,8 +3003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
